--- a/trunk/documentation/draft/system-user.xlsx
+++ b/trunk/documentation/draft/system-user.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="서비스 계정" sheetId="1" r:id="rId1"/>
+    <sheet name="대화형 사용자 계정" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -419,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,4 +507,20 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>